--- a/JobInfoExport.xlsx
+++ b/JobInfoExport.xlsx
@@ -581,49 +581,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Engineering Science</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FAS - Hardware Development Engineering (Onsite) REPOST</t>
+          <t>BUS - Accounting and Tax Intern (Onsite) REPOST</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>This job has been re-posted by the employer.  Please do not apply to this posting if you have already applied to the original.
-    Co-op Work Term: Fall 2022
-Length of Work Term: 4. 8 or 12 months
-Job Location: Vancouver, BC
-Job Duties:
-Developing circuit prototypes from concept to schematic to PCB
-Developing and maintaining firmware for prototypes
-Researching novel concepts for upcoming products
-Maintaining and updating product requirements
-Assisting with assembly of demos and displays
-Optimizing Bill of Materials for manufacturing
-Developing test suites for hardware safety certification
-Work closely with engineering lead to review and improve product requirements
-Must Have:
-solid rapid prototyping and creative problem solving skills including soldering and exposure to PCB design
-willingness to take risk and iterate over new ideas
-strong grasp of electronics and power electronic circuits
-high capability to develop embedded systems firmware prototyping
-ability to work on solving novel problems using new platforms with sparse documentation
-familiarity with fabrication and rapid prototyping, both electrical and mechanical
-cooperation, teamwork, chillness while working hard
-Good to Have:
-previous co-op experience, especially startups
-We love design teams! Tell us what you worked on and what you learned
-Experience with power electronics and electrical power safety is a big plus
-Your own personal DIY hacking, tell us how you solved your problems
-Contribution to open source projects or Open Hardware projects is highly appreciated
-Familiarity with DevOps and Linux build systems
-Experience with hand soldering tiny SMD components is highly respected
-Familiarity with embedded C/C++
-Unimportant:
-year of study
-academic performance on non-relevant courses</t>
+          <t>**This position has been reposted at the employer's request. Please refrain from applying twice.**
+Walsh King LLP is a medium sized CPA firm providing a wide range of services including audit, accounting, tax planning and other business advisory services. We are currently seeking a Tax and Accounting Co-op for an 8 month co-op term starting September 2022 and ending April 30, 2023.
+    We provide all our students with a broad range of skill development opportunities in the areas of accounting and tax related fields, ensuring a very solid foundation on which to build a successful career as a chartered professional accountant.
+Why Walsh King?
+    We want you to love your career in public practice just as much as we do. We do this by making the following commitments to you:
+Meaningful work and experiences. We will provide you with work experiences that are valuable to your development as a well-rounded business advisor.
+Flexibility. Long hours are not our thing. The staff at Walsh King enjoys flexible hours and minimal overtime at all levels guaranteed. Your time away from the office is just as important as your time at the office. By collaborating with our staff, we effectively manage the demands of our profession while respecting our individual needs for time to rest, regenerate - or walk our dog(s).
+You will make a difference. We are strong advocates of continual learning and we can learn a lot from each other. We regularly solicit advice and feedback from our staff in order to help us improve as a firm and as individuals. Communication and feedback are essential to your growth and ours.
+Minimum GPA - 3.5
+IMPORTANT NOTE:
+    To ensure clarity during the job seeking process, please note the following instructions regarding applying to Co-op jobs:
+    1. Always apply on myExperience. Failure to apply on myExperience means that your application will not be considered and may result in your access to myExperience job postings being revoked.
+    2. If the job posting also requires you to apply on the employer's website, please follow the instructions. You must still apply on myExperience.
+3. You are required to notify your Co-op program immediately if the employer contacts you directly to schedule interviews and discuss job offers.
+4. Once you accept the job offer, regardless of how you submitted your application, this is a Co-op position. You will be enrolled in a Co-op practicum course. 
+    5. If the position is extended to a second or third semester, it counts as two or three Co-op work terms. Each term requires Co-op registration and tuition which will be added to your SFU student account.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -648,23 +631,23 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4 or 8-month</t>
+          <t>8-month</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Salary Not Available, 0 hours per week</t>
+          <t>$20.00 hourly for 40 hours per week</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>August
-                          1, 2022
+                          4, 2022
                           11:59 PM</t>
         </is>
       </c>
@@ -680,42 +663,42 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>VoltSafe Inc.</t>
+          <t>Walsh King LLP</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>VoltSafe Inc.</t>
+          <t>Walsh King LLP</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Mr.</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Shahbaj</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Dhillon</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Power Electronics Engineer</t>
+          <t>Office Manager</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>#410-1444 Alberni St.</t>
+          <t>14th Floor 595 Howe Street</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -725,7 +708,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>V6G 2Z4</t>
+          <t>V6C 2T5</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
